--- a/data/instruments/attachments/cl-dzhw-4.xlsx
+++ b/data/instruments/attachments/cl-dzhw-4.xlsx
@@ -7,9 +7,8 @@
     <workbookView xWindow="120" yWindow="135" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="cl-dzhw-4" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Deckblatt" sheetId="2" r:id="rId1"/>
+    <sheet name="cl-dzhw-4" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -229,6 +228,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>370576</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>113026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="19050"/>
+          <a:ext cx="7190476" cy="10190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,9 +560,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -709,28 +766,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>